--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Gastroparesis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Gastroparesis_gen_overall.xlsx
@@ -462,22 +462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nausea and vomiting after meals</t>
+          <t>Chronic nausea and vomiting</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These symptoms are common in patients with Gastroparesis due to delayed gastric emptying.</t>
+          <t>Chronic nausea and vomiting are hallmark symptoms of gastroparesis due to delayed gastric emptying.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal appetite and no weight loss</t>
+          <t>Normal appetite</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal appetite and stable weight are less consistent with Gastroparesis, which typically leads to reduced food intake.</t>
+          <t>A normal appetite is less consistent with gastroparesis, where early satiety and reduced appetite are common.</t>
         </is>
       </c>
     </row>
@@ -489,83 +489,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with Gastroparesis often feel full after eating only a small amount of food, indicating impaired gastric motility.</t>
+          <t>Early satiety is common in gastroparesis as the stomach does not empty properly, leading to a feeling of fullness after eating small amounts.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of postprandial pain</t>
+          <t>Absence of nausea or vomiting</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patients with Gastroparesis often report pain after eating; its absence suggests an alternative diagnosis.</t>
+          <t>The absence of nausea or vomiting is atypical for gastroparesis, where these symptoms are prevalent.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bloating and abdominal discomfort</t>
+          <t>Postprandial fullness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These symptoms are frequently reported in Gastroparesis due to the accumulation of food in the stomach.</t>
+          <t>Postprandial fullness is indicative of gastroparesis as the stomach retains food longer than normal.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of diabetes or other conditions affecting gastric motility</t>
+          <t>Rapid gastric emptying symptoms</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of these conditions makes Gastroparesis less likely, as they are common risk factors.</t>
+          <t>Symptoms like diarrhea or hypoglycemia after meals suggest rapid gastric emptying, not gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Weight loss or malnutrition</t>
+          <t>Bloating</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients may experience weight loss due to inadequate nutrient absorption and reduced food intake caused by symptoms.</t>
+          <t>Bloating is frequently reported in gastroparesis due to delayed gastric emptying and gas retention.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Symptoms improving with dietary changes</t>
+          <t>Weight gain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>If symptoms improve significantly with dietary modifications, it may indicate a functional gastrointestinal disorder rather than Gastroparesis.</t>
+          <t>Weight gain is less likely in gastroparesis, where weight loss is more common due to reduced intake and malabsorption.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Symptoms worsening after high-fat or high-fiber meals</t>
+          <t>Abdominal pain</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>These types of meals are known to exacerbate symptoms in Gastroparesis due to their slower digestion.</t>
+          <t>Abdominal pain can occur in gastroparesis due to distension and delayed gastric emptying.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No significant gastrointestinal surgeries in history</t>
+          <t>No postprandial symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Prior surgeries can lead to Gastroparesis; their absence suggests a lower likelihood of the condition.</t>
+          <t>The absence of postprandial symptoms like fullness or bloating argues against gastroparesis.</t>
         </is>
       </c>
     </row>
@@ -618,61 +618,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diabetes is a common cause of gastroparesis due to autonomic neuropathy affecting gastric motility.</t>
+          <t>Diabetes mellitus is a common cause of gastroparesis due to autonomic neuropathy affecting gastric motility.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of diabetes or metabolic disorders</t>
+          <t>No history of diabetes or other systemic diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of diabetes or related metabolic disorders reduces the likelihood of gastroparesis.</t>
+          <t>The absence of systemic diseases like diabetes reduces the likelihood of gastroparesis, which is often secondary to such conditions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous gastrointestinal surgeries</t>
+          <t>Previous gastric surgery</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surgical procedures on the stomach or intestines can lead to gastroparesis due to disruption of normal motility.</t>
+          <t>Gastric surgeries can disrupt normal gastric motility, leading to gastroparesis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous gastrointestinal surgeries</t>
+          <t>No history of gastric or abdominal surgeries</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of surgical history on the gastrointestinal tract suggests a lower risk for developing gastroparesis.</t>
+          <t>Without prior surgeries, the risk of surgically induced gastroparesis is lower.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of medications that slow gastric emptying</t>
+          <t>Use of medications known to slow gastric emptying</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain medications, such as opioids or anticholinergics, are known to contribute to delayed gastric emptying.</t>
+          <t>Certain medications, such as opioids, can slow gastric motility and contribute to gastroparesis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No use of medications known to affect gastric motility</t>
+          <t>No use of medications affecting gastric motility</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not taking medications that slow gastric emptying decreases the likelihood of gastroparesis.</t>
+          <t>The absence of medications that slow gastric emptying decreases the likelihood of gastroparesis.</t>
         </is>
       </c>
     </row>
@@ -684,39 +684,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conditions like scleroderma can affect gastric motility and lead to gastroparesis.</t>
+          <t>Connective tissue disorders can affect the smooth muscle function of the gastrointestinal tract, leading to gastroparesis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of connective tissue disorders</t>
+          <t>No history of neurological disorders</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of connective tissue disorders indicates a lower risk for motility issues like gastroparesis.</t>
+          <t>Neurological disorders can affect autonomic control of the stomach; their absence reduces the likelihood of gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Previous diagnosis of hypothyroidism</t>
+          <t>Chronic use of anticholinergic medications</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypothyroidism can slow down gastrointestinal motility, potentially leading to gastroparesis.</t>
+          <t>Anticholinergic medications can impair gastric motility, increasing the risk of gastroparesis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal thyroid function tests</t>
+          <t>No history of connective tissue disorders</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal thyroid function suggests that hypothyroidism, which can contribute to gastroparesis, is not a factor.</t>
+          <t>Without connective tissue disorders, the risk of gastroparesis due to impaired smooth muscle function is reduced.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of diabetes</t>
+          <t>Family history of diabetes mellitus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diabetes is a common cause of gastroparesis, and a family history suggests a genetic predisposition to conditions that can lead to gastroparesis.</t>
+          <t>Diabetes is a common cause of gastroparesis, and a family history may indicate a genetic predisposition to diabetes, increasing the risk of developing gastroparesis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Active participation in regular physical activity</t>
+          <t>No family history of diabetes or gastroparesis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular physical activity is associated with better gastrointestinal motility, reducing the likelihood of gastroparesis.</t>
+          <t>The absence of a family history of diabetes or gastroparesis reduces the likelihood of a genetic predisposition to these conditions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of autoimmune diseases</t>
+          <t>Chronic use of medications known to affect gastric motility</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Autoimmune diseases can affect the autonomic nervous system, which may lead to gastroparesis.</t>
+          <t>Certain medications, such as opioids, can slow gastric emptying, which may lead to or exacerbate gastroparesis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No family history of gastrointestinal disorders</t>
+          <t>No history of medication use affecting gastric motility</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of family history of gastrointestinal disorders suggests a lower genetic predisposition to conditions like gastroparesis.</t>
+          <t>Without the use of medications that affect gastric motility, the risk of drug-induced gastroparesis is lower.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle</t>
+          <t>History of gastric surgery</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A sedentary lifestyle can contribute to obesity and metabolic issues, which are risk factors for developing gastroparesis.</t>
+          <t>Previous gastric surgery can lead to nerve damage affecting gastric motility, increasing the risk of gastroparesis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Healthy diet with high fiber intake</t>
+          <t>No history of gastric surgery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A diet high in fiber can promote healthy digestion and reduce the risk of developing gastroparesis.</t>
+          <t>The absence of gastric surgery reduces the risk of nerve damage that could lead to gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastrointestinal surgeries</t>
+          <t>Family history of gastroparesis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Previous surgeries on the gastrointestinal tract can lead to complications such as gastroparesis.</t>
+          <t>A direct family history of gastroparesis suggests a potential genetic component, increasing the likelihood of the condition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of diabetes or metabolic syndrome</t>
+          <t>Healthy lifestyle with regular exercise</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of diabetes or metabolic syndrome significantly lowers the risk of developing gastroparesis.</t>
+          <t>Regular exercise can improve gastric motility and reduce the risk of developing gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Use of certain medications (e.g., opioids)</t>
+          <t>Chronic alcohol use</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Medications like opioids can slow gastric emptying, increasing the likelihood of gastroparesis.</t>
+          <t>Chronic alcohol consumption can damage the nerves controlling gastric motility, increasing the risk of gastroparesis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of neurological disorders</t>
+          <t>Moderate alcohol consumption</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Neurological disorders can affect gastric motility; their absence suggests a lower risk for gastroparesis.</t>
+          <t>Moderate alcohol consumption is less likely to cause nerve damage affecting gastric motility compared to chronic use.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Delayed gastric emptying observed on physical examination</t>
+          <t>Abdominal distension</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is directly indicative of gastroparesis, as it reflects the impaired motility of the stomach.</t>
+          <t>Abdominal distension is often observed in patients with Gastroparesis due to delayed gastric emptying leading to bloating.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal abdominal exam without tenderness or masses</t>
+          <t>Normal bowel sounds</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal abdominal exam suggests that there are no significant gastrointestinal issues, making gastroparesis less likely.</t>
+          <t>Normal bowel sounds suggest normal gastrointestinal motility, which is less consistent with Gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Abdominal distension noted during examination</t>
+          <t>Succussion splash</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abdominal distension is a common physical finding in patients with gastroparesis due to the accumulation of food in the stomach.</t>
+          <t>A succussion splash heard on auscultation can indicate retained gastric contents, which is consistent with delayed gastric emptying in Gastroparesis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stable vital signs without signs of dehydration</t>
+          <t>Absence of abdominal distension</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stable vital signs and absence of dehydration indicate that the patient is likely not experiencing the complications associated with gastroparesis.</t>
+          <t>Lack of abdominal distension may indicate normal gastric emptying, arguing against Gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nausea or vomiting reported during physical assessment</t>
+          <t>Epigastric tenderness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nausea and vomiting are frequent symptoms associated with gastroparesis, supporting the diagnosis.</t>
+          <t>Tenderness in the epigastric region may be present due to gastric distension and is more common in Gastroparesis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No signs of malnutrition during physical examination</t>
+          <t>Normal weight</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of malnutrition suggests that the patient is maintaining adequate nutritional intake, which is inconsistent with gastroparesis.</t>
+          <t>Maintaining a normal weight suggests adequate nutritional intake and gastric function, which is less likely in Gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Weight loss observed during physical examination</t>
+          <t>Weight loss</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can occur in gastroparesis due to poor nutritional intake and malabsorption.</t>
+          <t>Unintentional weight loss can occur in Gastroparesis due to reduced oral intake and malnutrition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal bowel sounds auscultated</t>
+          <t>No epigastric tenderness</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal bowel sounds indicate that gastrointestinal motility is functioning properly, which contradicts the diagnosis of gastroparesis.</t>
+          <t>Absence of tenderness in the epigastric region may indicate normal gastric function, which is inconsistent with Gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hypotension noted during vital signs assessment</t>
+          <t>Postprandial fullness</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypotension can occur in patients with gastroparesis due to dehydration from vomiting or poor oral intake.</t>
+          <t>Feeling of fullness after meals is a common symptom in Gastroparesis due to delayed gastric emptying.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of abdominal pain during examination</t>
+          <t>No postprandial fullness</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of abdominal pain is often seen in patients without gastroparesis, as pain is a common symptom in those with the condition.</t>
+          <t>Lack of postprandial fullness suggests normal gastric emptying, which argues against Gastroparesis.</t>
         </is>
       </c>
     </row>
@@ -1071,105 +1071,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This test directly measures the rate at which food leaves the stomach, and delayed gastric emptying is a hallmark of Gastroparesis.</t>
+          <t>A gastric emptying study showing delayed gastric emptying is a hallmark diagnostic test for gastroparesis, indicating impaired gastric motility.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal gastric emptying study results</t>
+          <t>Normal gastric emptying study</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal result on a gastric emptying study strongly suggests that Gastroparesis is not present, as it indicates normal gastric motility.</t>
+          <t>A normal gastric emptying study suggests that gastric motility is not impaired, arguing against gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Increased postprandial gastric volume</t>
+          <t>Abnormal electrogastrogram (EGG)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An increased volume of food remaining in the stomach after eating indicates impaired gastric motility, which is consistent with Gastroparesis.</t>
+          <t>An EGG showing abnormal gastric myoelectrical activity supports gastroparesis as it indicates dysrhythmias associated with impaired gastric motility.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal upper GI series findings</t>
+          <t>Normal electrogastrogram (EGG)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal upper GI series indicates that there are no structural or functional abnormalities in the gastrointestinal tract, arguing against Gastroparesis.</t>
+          <t>A normal EGG indicates normal gastric myoelectrical activity, which is inconsistent with gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormalities on upper gastrointestinal (GI) series</t>
+          <t>Scintigraphic gastric emptying test showing &gt;10% retention at 4 hours</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An upper GI series may show delayed transit time or retention of contrast material, supporting the diagnosis of Gastroparesis.</t>
+          <t>This specific finding on a scintigraphic gastric emptying test is highly indicative of gastroparesis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Negative results for Helicobacter pylori infection</t>
+          <t>Normal gastric manometry</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of H. pylori, which can cause gastric issues, suggests that other causes of symptoms are more likely than Gastroparesis.</t>
+          <t>Normal gastric manometry results suggest normal gastric motility, which argues against gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated serum gastrin levels</t>
+          <t>Abnormal gastric manometry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>In some cases of Gastroparesis, elevated gastrin levels can be observed due to impaired gastric emptying and feedback mechanisms.</t>
+          <t>Gastric manometry showing abnormal motility patterns supports gastroparesis by demonstrating impaired gastric contractions.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal serum electrolytes</t>
+          <t>Negative breath test for delayed gastric emptying</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal electrolyte levels can indicate that there are no metabolic derangements contributing to gastrointestinal symptoms, making Gastroparesis less likely.</t>
+          <t>A negative breath test indicates normal gastric emptying, which is inconsistent with gastroparesis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of symptoms correlating with delayed gastric emptying</t>
+          <t>Positive breath test for delayed gastric emptying</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Symptoms such as nausea, vomiting, and early satiety that correlate with test results can strengthen the diagnosis of Gastroparesis.</t>
+          <t>A breath test indicating delayed gastric emptying supports gastroparesis by showing slow digestion and absorption.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of significant weight loss</t>
+          <t>Normal upper endoscopy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Significant weight loss is often associated with Gastroparesis due to malnutrition; its absence suggests that the condition is unlikely.</t>
+          <t>While not specific, a normal upper endoscopy can help rule out structural causes of symptoms, making gastroparesis less likely if other tests are normal.</t>
         </is>
       </c>
     </row>
